--- a/login.xlsx
+++ b/login.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Leonardo\eclipse-workspace\advantgeSho\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A83E70-964A-4FA7-A480-A9A3D5DCF197}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{859CC030-5FCD-4558-9A2D-7F9FDC78AC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,16 +85,16 @@
     <t>kk@show.com</t>
   </si>
   <si>
-    <t>Ayrton</t>
-  </si>
-  <si>
-    <t>Senna</t>
-  </si>
-  <si>
-    <t>Brasil</t>
-  </si>
-  <si>
     <t>Test@1999</t>
+  </si>
+  <si>
+    <t>Juan</t>
+  </si>
+  <si>
+    <t>karla</t>
+  </si>
+  <si>
+    <t>Ljack</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
   <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,19 +573,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>24</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F3">
         <v>1144778910</v>
